--- a/data/DATA_COMPLETE_New.xlsx
+++ b/data/DATA_COMPLETE_New.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\ASESORIAS\UpWork\Vincent_Ochs\Caret\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\ASESORIAS\UpWork\Vincent_Ochs\Caret\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EAA312-E606-4B0C-9E1F-1C201E9844E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F084C52-607E-4998-AA95-FBB795C8C01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +144,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -159,11 +165,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,86 +555,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1081"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
